--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,7 +44,52 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:17 AM</t>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 22 July, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +299,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +311,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +719,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>219</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +862,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
@@ -89,7 +98,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:33 AM</t>
+    <t>Tuesday, 22 July, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -763,7 +772,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -773,14 +782,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -789,66 +798,99 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>219</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>237</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +914,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
@@ -71,6 +83,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
@@ -83,9 +101,6 @@
     <t>205.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -98,7 +113,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:39 AM</t>
+    <t>Tuesday, 22 July, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,7 +787,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -782,11 +797,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -798,14 +813,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -822,7 +837,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -831,66 +846,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>27</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>28</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>237</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>27</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>292.30000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>36</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +1000,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -83,6 +83,27 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -113,7 +134,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:45 AM</t>
+    <t>Tuesday, 22 July, 2025 9:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -853,7 +874,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -863,11 +884,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -879,14 +900,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -896,11 +917,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -912,66 +933,132 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>292.30000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>34</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>35</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>36</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>38</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>356.30000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>42</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>43</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1010,10 +1097,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -122,19 +122,31 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:48 AM</t>
+    <t>Tuesday, 22 July, 2025 9:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1006,59 +1018,92 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>356.30000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>42</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>43</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>396.30000000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1107,10 +1152,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -146,7 +146,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:49 AM</t>
+    <t>Tuesday, 22 July, 2025 9:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>71.00</t>
   </si>
   <si>
     <t>35.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -95,6 +107,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -110,6 +131,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
@@ -146,7 +176,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:53 AM</t>
+    <t>Tuesday, 22 July, 2025 10:07 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -853,7 +883,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -863,11 +893,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -879,14 +909,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -919,7 +949,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,14 +959,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,14 +975,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,11 +992,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -978,14 +1008,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -995,14 +1025,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,31 +1041,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1044,66 +1074,165 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>44</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>48</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>49</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>396.30000000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>46</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>47</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>44</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>49</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>56</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>57</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1286,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -62,12 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>71.00</t>
   </si>
   <si>
@@ -143,9 +164,6 @@
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>205.00</t>
   </si>
   <si>
@@ -176,7 +194,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:07 AM</t>
+    <t>Tuesday, 22 July, 2025 10:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -867,7 +885,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -876,14 +894,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -933,7 +951,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,7 +984,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -982,7 +1000,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -999,7 +1017,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1015,7 +1033,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1025,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1041,7 +1059,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1058,14 +1076,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1074,7 +1092,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1091,11 +1109,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1107,14 +1125,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1124,14 +1142,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1147,24 +1165,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1173,66 +1191,132 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>54</v>
       </c>
-      <c t="s" r="Q18" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>576.79999999999995</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
         <v>55</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>56</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>55</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>716.79999999999995</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>62</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>63</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1301,10 +1385,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -194,7 +194,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:19 AM</t>
+    <t>Tuesday, 22 July, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -191,10 +200,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 22 July, 2025 10:23 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 22 July, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -967,7 +979,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -977,14 +989,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,14 +1005,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1033,7 +1045,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1043,11 +1055,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1059,14 +1071,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1116,7 +1128,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1132,7 +1144,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,14 +1154,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,7 +1170,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1175,7 +1187,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1198,7 +1210,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1215,7 +1227,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1231,21 +1243,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1257,20 +1269,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1285,38 +1297,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>716.79999999999995</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>58</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>62</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>840.79999999999995</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>65</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>66</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>67</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1395,10 +1440,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,24 +44,60 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -128,9 +164,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -185,9 +218,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -206,7 +236,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:31 AM</t>
+    <t>Tuesday, 22 July, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -886,18 +916,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -913,21 +943,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -939,31 +969,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -972,31 +1002,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1005,31 +1035,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1038,31 +1068,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1071,31 +1101,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1104,31 +1134,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,31 +1167,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1170,31 +1200,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,31 +1233,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1236,28 +1266,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1269,31 +1299,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1309,13 +1339,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1326,42 +1356,141 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>840.79999999999995</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>65</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>67</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>68</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>69</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1359.8</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>76</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>77</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1445,10 +1574,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -236,7 +236,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:32 AM</t>
+    <t>Tuesday, 22 July, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -230,13 +242,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 22 July, 2025 10:33 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 22 July, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1351,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1349,11 +1361,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>33</v>
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1398,20 +1410,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1438,7 +1450,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1448,49 +1460,82 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1359.8</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>75</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>76</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1378.6300000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1589,10 +1634,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:34 AM</t>
+    <t>Tuesday, 22 July, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -155,10 +179,16 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -224,15 +254,21 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -245,10 +281,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 22 July, 2025 10:44 AM</t>
+    <t>Tuesday, 22 July, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,7 +1021,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1031,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,14 +1047,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1031,14 +1064,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1054,7 +1087,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1064,14 +1097,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,14 +1113,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,11 +1163,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1146,14 +1179,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,14 +1196,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1262,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,14 +1278,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,14 +1295,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1285,7 +1318,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,14 +1328,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1344,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1361,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,14 +1377,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,14 +1394,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,14 +1410,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,14 +1427,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,14 +1443,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1427,14 +1460,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1456,7 +1489,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1467,7 +1500,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1483,13 +1516,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1500,42 +1533,174 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1378.6300000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>85</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>58</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1429.6300000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1804,30 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -281,7 +281,22 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:49 AM</t>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>كمامات قطع</t>
+  </si>
+  <si>
+    <t>Tuesday, 22 July, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1669,38 +1684,104 @@
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1429.6300000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>90</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>91</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>92</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>82</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1459.6300000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +1905,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:50 AM</t>
+    <t>Tuesday, 22 July, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -272,13 +272,19 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
@@ -296,7 +302,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:52 AM</t>
+    <t>Tuesday, 22 July, 2025 10:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1677,10 +1683,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1722,14 +1728,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1739,49 +1745,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1459.6300000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>96</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>82</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1465.6300000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>97</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>98</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>99</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1954,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -200,6 +212,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -287,6 +311,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -296,13 +329,10 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:53 AM</t>
+    <t>Tuesday, 22 July, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1237,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1217,14 +1247,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1233,7 +1263,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1250,14 +1280,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1266,14 +1296,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1290,7 +1320,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1306,7 +1336,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,11 +1346,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1332,14 +1362,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,11 +1379,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>30</v>
@@ -1372,7 +1402,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1412,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1398,14 +1428,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,11 +1445,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
@@ -1431,31 +1461,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,11 +1511,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -1497,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,7 +1560,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1547,11 +1577,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1563,14 +1593,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1610,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1626,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,28 +1659,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1662,7 +1692,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1679,11 +1709,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1695,14 +1725,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1712,14 +1742,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1728,14 +1758,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1745,11 +1775,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1761,7 +1791,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1778,49 +1808,148 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>101</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1465.6300000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>97</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>98</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>99</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>105</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>90</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1551.6300000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1959,10 +2088,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:54 AM</t>
+    <t>Tuesday, 22 July, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 11:33 AM</t>
+    <t>Tuesday, 22 July, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -62,15 +80,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -80,15 +107,33 @@
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
     <t>141.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -101,9 +146,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
   </si>
   <si>
@@ -116,9 +158,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -179,9 +218,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -332,7 +368,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 11:34 AM</t>
+    <t>Tuesday, 22 July, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1059,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1032,20 +1068,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1056,7 +1092,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1065,31 +1101,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1105,13 +1141,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1122,7 +1158,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1138,24 +1174,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1164,20 +1200,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1188,7 +1224,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1210,7 +1246,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1221,7 +1257,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1237,24 +1273,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1263,31 +1299,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,31 +1332,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1329,31 +1365,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1362,31 +1398,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,31 +1431,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1428,31 +1464,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1461,14 +1497,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1485,7 +1521,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1501,24 +1537,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,31 +1563,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,31 +1596,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,7 +1653,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1633,13 +1669,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1650,7 +1686,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1666,13 +1702,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1683,7 +1719,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1699,7 +1735,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,14 +1745,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,14 +1778,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1765,7 +1801,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1779,10 +1815,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1791,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,14 +1844,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,20 +1860,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1845,10 +1881,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,31 +1893,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,66 +1926,198 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1551.6300000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>107</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>108</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>109</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>19</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>110</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>112</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>113</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>19</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>114</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>116</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>19</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>19</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>102</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1759.22</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2103,10 +2271,30 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>12.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -344,7 +353,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>كريم فيرند لافلي الكبير</t>
@@ -368,7 +380,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 11:36 AM</t>
+    <t>Tuesday, 22 July, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1026,7 +1038,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1035,31 +1047,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1068,20 +1080,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1108,7 +1120,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1118,14 +1130,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1134,14 +1146,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1158,7 +1170,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1174,7 +1186,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1207,7 +1219,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1217,14 +1229,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1233,14 +1245,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1250,14 +1262,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1290,7 +1302,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1306,7 +1318,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1339,7 +1351,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1356,7 +1368,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1372,7 +1384,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,14 +1427,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1471,7 +1483,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1488,7 +1500,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1504,7 +1516,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1537,7 +1549,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1620,7 +1632,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1636,24 +1648,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1662,20 +1674,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1686,7 +1698,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1702,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1719,7 +1731,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1745,11 +1757,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1818,7 +1830,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1834,7 +1846,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1851,7 +1863,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1867,13 +1879,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1884,7 +1896,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1900,24 +1912,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1933,24 +1945,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1959,31 +1971,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1999,24 +2011,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,31 +2037,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2058,66 +2070,99 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1759.22</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>119</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>120</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>121</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>23</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>105</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1772.74</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2336,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -251,10 +251,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -380,7 +383,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 11:39 AM</t>
+    <t>Tuesday, 22 July, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,7 +1651,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,11 +1694,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1707,7 +1710,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1724,11 +1727,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1740,7 +1743,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1757,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -1773,7 +1776,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1794,7 +1797,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,11 +1826,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1839,7 +1842,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1856,11 +1859,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1889,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1922,11 +1925,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1959,7 +1962,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -1971,7 +1974,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1988,7 +1991,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2004,7 +2007,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2021,14 +2024,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,14 +2040,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,7 +2057,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2070,14 +2073,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2132,13 +2135,13 @@
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="P41" s="13">
-        <v>1772.74</v>
+        <v>1795.74</v>
       </c>
       <c r="Q41" s="13"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c t="s" r="A42" s="14">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2146,13 +2149,13 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c t="s" r="G42" s="15">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c t="s" r="K42" s="17">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -326,6 +326,18 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -383,7 +395,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:27 PM</t>
+    <t>Tuesday, 22 July, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,21 +1927,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2007,7 +2019,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2047,7 +2059,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2123,49 +2135,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1795.74</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>124</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>125</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>126</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>22</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>23</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>110</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1891.74</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2389,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:28 PM</t>
+    <t>Tuesday, 22 July, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -284,12 +293,6 @@
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -395,7 +398,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:33 PM</t>
+    <t>Tuesday, 22 July, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1435,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,11 +1445,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1458,14 +1461,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,11 +1478,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1491,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1515,7 +1518,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1548,7 +1551,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1564,7 +1567,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1581,7 +1584,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1597,7 +1600,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,11 +1610,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1623,14 +1626,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,11 +1643,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1656,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1676,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,31 +1692,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,20 +1725,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1779,7 +1782,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1795,7 +1798,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1808,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1824,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,11 +1841,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1854,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,11 +1874,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1887,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1907,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1923,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,11 +1940,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1953,28 +1956,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -1986,14 +1989,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,11 +2006,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2019,14 +2022,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2036,11 +2039,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2069,14 +2072,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,14 +2088,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,14 +2105,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,11 +2138,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2151,14 +2154,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2168,49 +2171,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1891.74</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>128</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>22</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>111</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1932.74</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>129</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
         <v>130</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>131</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2394,10 +2430,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -101,15 +101,24 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -302,13 +311,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -371,18 +377,15 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -398,7 +401,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:34 PM</t>
+    <t>Tuesday, 22 July, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1188,7 +1191,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1204,7 +1207,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -1237,7 +1240,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1254,7 +1257,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1270,7 +1273,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1280,11 +1283,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1296,14 +1299,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1313,11 +1316,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1329,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1353,7 +1356,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1369,7 +1372,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1386,7 +1389,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1402,7 +1405,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1419,7 +1422,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1435,7 +1438,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1468,7 +1471,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1478,11 +1481,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1494,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1511,11 +1514,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1527,14 +1530,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1551,7 +1554,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,7 +1587,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1600,7 +1603,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1617,7 +1620,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1633,7 +1636,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1643,11 +1646,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1659,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1676,11 +1679,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1692,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1725,31 +1728,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1758,20 +1761,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1808,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1824,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1857,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,11 +1877,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1890,14 +1893,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1907,14 +1910,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,14 +1943,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1956,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1973,11 +1976,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -1989,28 +1992,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2039,11 +2042,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2109,10 +2112,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2138,14 +2141,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2154,14 +2157,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2204,49 +2207,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1932.74</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>129</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>22</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>113</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1966.05</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>130</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
         <v>131</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2435,10 +2471,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -383,6 +383,27 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>شامبو دوف 200مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -401,7 +422,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:46 PM</t>
+    <t>Tuesday, 22 July, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2164,7 +2185,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2178,7 +2199,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2240,49 +2261,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>133</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>134</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>23</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>135</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>22</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>23</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>113</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>114</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1966.05</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>131</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>132</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2066.0500000000002</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>137</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>138</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>139</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2563,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
   </si>
   <si>
@@ -254,6 +263,15 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -422,7 +440,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 12:48 PM</t>
+    <t>Tuesday, 22 July, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1459,7 +1477,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1492,7 +1510,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1525,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1535,11 +1553,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1568,11 +1586,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1608,7 +1626,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1641,7 +1659,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1657,7 +1675,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1674,7 +1692,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,11 +1718,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,11 +1751,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,28 +1800,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,31 +1866,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,11 +1916,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1914,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1947,7 +1965,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1964,7 +1982,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1987,7 +2005,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2004,7 +2022,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2020,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2046,7 +2064,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2059,15 +2077,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2079,24 +2097,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2133,7 +2151,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,14 +2180,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2185,7 +2203,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2199,7 +2217,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,11 +2279,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2298,7 +2316,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2327,49 +2345,115 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2066.0500000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>137</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>138</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>139</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>140</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>23</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>141</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>22</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>23</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>119</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2119.79</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2573,10 +2657,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -257,7 +257,10 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
@@ -395,36 +398,36 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>شامبو دوف 200مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>شامبو دوف 200مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -440,7 +443,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 1:00 PM</t>
+    <t>Tuesday, 22 July, 2025 1:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1708,7 +1711,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1725,7 +1728,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,7 +1737,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1767,7 +1770,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1784,11 +1787,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1800,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,11 +1820,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1833,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,11 +1853,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1866,14 +1869,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,11 +1886,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1899,7 +1902,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1965,7 +1968,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1986,7 +1989,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1998,7 +2001,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2015,11 +2018,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2031,7 +2034,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2048,11 +2051,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2081,11 +2084,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2097,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,11 +2117,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2130,7 +2133,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2180,11 +2183,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2229,7 +2232,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>129</v>
@@ -2335,7 +2338,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,7 +2348,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2378,11 +2381,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2394,7 +2397,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2423,13 +2426,13 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>2119.79</v>
+        <v>2147.79</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c t="s" r="A49" s="14">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2437,13 +2440,13 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c t="s" r="G49" s="15">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
       <c t="s" r="K49" s="17">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -443,7 +455,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 1:13 PM</t>
+    <t>Tuesday, 22 July, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,7 +1426,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1436,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1452,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1469,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1473,14 +1485,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,11 +1502,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1506,14 +1518,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,14 +1535,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1539,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,11 +1568,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1645,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1671,7 +1683,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1688,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,7 +1716,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1744,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,11 +1799,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1860,7 +1872,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1882,7 +1894,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1893,7 +1905,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1909,21 +1921,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1935,7 +1947,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2140,21 +2152,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2232,7 +2244,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,14 +2294,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2352,7 +2364,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2381,11 +2393,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2414,49 +2426,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2147.79</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>144</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>145</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>146</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>22</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>23</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>124</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2156.9099999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>148</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>149</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>150</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2670,10 +2715,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -344,10 +344,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:3</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -410,7 +413,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>شامبو دوف 200مل</t>
@@ -431,9 +437,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -455,7 +458,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 1:14 PM</t>
+    <t>Tuesday, 22 July, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2053,7 +2056,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2066,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,7 +2082,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2096,11 +2099,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2112,7 +2115,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2129,11 +2132,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2145,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,11 +2165,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2232,7 +2235,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2244,7 +2247,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2261,7 +2264,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2277,7 +2280,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2294,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,7 +2313,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2327,11 +2330,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2343,14 +2346,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,11 +2363,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2376,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,7 +2396,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2409,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2426,7 +2429,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2442,7 +2445,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2459,11 +2462,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2471,13 +2474,13 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>2156.9099999999999</v>
+        <v>2175.7399999999998</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c t="s" r="A50" s="14">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2485,13 +2488,13 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c t="s" r="G50" s="15">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
       <c t="s" r="K50" s="17">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 1:32 PM</t>
+    <t>Tuesday, 22 July, 2025 2:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
   </si>
   <si>
@@ -197,9 +209,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -317,9 +326,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -341,6 +347,24 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -458,7 +482,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 2:44 PM</t>
+    <t>Tuesday, 22 July, 2025 2:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,7 +1486,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1472,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1488,14 +1512,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1505,14 +1529,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1521,14 +1545,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1538,11 +1562,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1554,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,14 +1595,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1594,7 +1618,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1627,7 +1651,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1637,11 +1661,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -1653,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,11 +1694,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1686,14 +1710,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1710,7 +1734,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,7 +1767,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1776,7 +1800,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,14 +1826,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1818,14 +1842,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1835,11 +1859,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1858,7 +1882,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,14 +1925,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,31 +1941,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1950,28 +1974,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1983,7 +2007,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2000,14 +2024,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2016,14 +2040,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2056,7 +2080,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,11 +2123,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,11 +2156,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2189,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,31 +2205,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,28 +2238,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2247,28 +2271,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2304,7 +2328,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,11 +2354,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,11 +2387,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,49 +2486,148 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2175.7399999999998</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>149</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>150</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>151</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>23</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>152</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>153</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>154</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>23</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>155</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>22</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>23</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>133</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2326.7600000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>157</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>158</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>159</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2723,10 +2846,25 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -368,13 +368,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>84.1500</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -407,6 +407,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -437,39 +443,36 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>شامبو دوف 200مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>شامبو دوف 200مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -482,7 +485,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 2:47 PM</t>
+    <t>Tuesday, 22 July, 2025 2:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2196,7 +2199,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,7 +2328,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2354,11 +2357,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2424,10 +2427,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,14 +2439,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2453,14 +2456,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,11 +2489,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2502,14 +2505,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,11 +2555,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,49 +2588,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2326.7600000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>157</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>22</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>23</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>135</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2399.4200000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>158</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
         <v>159</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>160</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2861,10 +2897,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>27.5000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 2:48 PM</t>
+    <t>Tuesday, 22 July, 2025 2:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1885,7 +1894,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1918,7 +1927,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1928,11 +1937,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,14 +1970,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1977,31 +1986,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2017,17 +2026,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,7 +2135,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2149,7 +2158,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2166,7 +2175,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2182,7 +2191,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2232,7 +2241,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2248,7 +2257,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2265,7 +2274,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2281,7 +2290,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2307,20 +2316,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2328,7 +2337,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2340,7 +2349,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2380,7 +2389,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,7 +2399,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2413,7 +2422,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,11 +2432,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2439,7 +2448,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2479,7 +2488,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2493,10 +2502,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2512,7 +2521,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2522,11 +2531,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2538,14 +2547,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2555,11 +2564,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2588,11 +2597,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2611,7 +2620,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2621,49 +2630,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2399.4200000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>158</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>159</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>160</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>22</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>23</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>138</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2426.9200000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>161</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>162</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>163</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2902,10 +2944,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -494,7 +494,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 2:49 PM</t>
+    <t>Tuesday, 22 July, 2025 2:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -407,13 +407,13 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t>بيبرونه ALGO كبيره</t>
@@ -494,7 +494,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 2:51 PM</t>
+    <t>Tuesday, 22 July, 2025 2:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2340,7 +2340,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2675,7 +2675,7 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2426.9200000000001</v>
+        <v>2522.9200000000001</v>
       </c>
       <c r="Q54" s="13"/>
     </row>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -47,24 +47,24 @@
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -245,36 +245,39 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -467,9 +470,6 @@
     <t>قصافات كبار</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 2:52 PM</t>
+    <t>Tuesday, 22 July, 2025 3:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1152,7 +1152,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1161,14 +1161,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1234,7 +1234,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1251,7 +1251,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,7 +1284,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1366,7 +1366,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1383,7 +1383,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1416,7 +1416,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1449,7 +1449,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1482,7 +1482,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1515,7 +1515,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1564,7 +1564,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1581,7 +1581,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1614,7 +1614,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,7 +1779,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1828,7 +1828,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1838,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1878,7 +1878,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1904,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +1970,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2019,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2040,10 +2040,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2069,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2168,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2201,11 +2201,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2217,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>48</v>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2316,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>52</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2399,11 +2399,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2415,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2498,14 +2498,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2531,11 +2531,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2547,14 +2547,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2663,11 +2663,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -407,6 +407,12 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -494,7 +500,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 3:49 PM</t>
+    <t>Tuesday, 22 July, 2025 4:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1537,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2323,7 +2329,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,31 +2355,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,7 +2409,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,11 +2438,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,11 +2471,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2502,10 +2508,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2570,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2630,11 +2636,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2663,49 +2669,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2522.9200000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>161</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>162</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>22</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>23</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>141</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2593.9200000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>163</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>164</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>165</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2949,10 +2988,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 4:24 PM</t>
+    <t>Tuesday, 22 July, 2025 4:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOL 500MG 24 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
     <t>11.5200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 4:41 PM</t>
+    <t>Tuesday, 22 July, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1174,7 +1183,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1184,14 +1193,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1207,24 +1216,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1233,20 +1242,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1257,7 +1266,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1266,14 +1275,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1316,14 +1325,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1332,14 +1341,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1349,14 +1358,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1382,14 +1391,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1398,14 +1407,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1504,7 +1513,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1514,11 +1523,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1554,7 +1563,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1587,7 +1596,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1603,7 +1612,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1613,11 +1622,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1686,7 +1695,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1785,7 +1794,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1933,7 +1942,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1966,7 +1975,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1976,11 +1985,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2025,31 +2034,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,17 +2074,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2098,7 +2107,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,7 +2183,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2197,7 +2206,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2214,7 +2223,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2230,7 +2239,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2313,7 +2322,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,20 +2397,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2409,10 +2418,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,31 +2430,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2461,24 +2470,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2494,24 +2503,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,31 +2529,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2574,10 +2583,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,13 +2602,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2610,7 +2619,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2626,24 +2635,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,31 +2661,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2692,59 +2701,92 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q54" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2593.9200000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>163</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>164</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>165</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>27</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>144</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2609.9200000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>166</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>167</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>168</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2993,10 +3035,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -176,6 +176,21 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -197,6 +212,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
   </si>
   <si>
@@ -284,16 +308,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:0</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
@@ -470,7 +491,16 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>شامبو دوف 200مل</t>
@@ -494,9 +524,6 @@
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
@@ -509,7 +536,7 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 5:34 PM</t>
+    <t>Tuesday, 22 July, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1540,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1523,14 +1550,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1556,11 +1583,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1589,14 +1616,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1605,14 +1632,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1622,14 +1649,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,14 +1665,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1655,14 +1682,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1671,14 +1698,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1688,14 +1715,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1704,14 +1731,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1721,14 +1748,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,11 +1781,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1770,14 +1797,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1810,7 +1837,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,14 +1847,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1836,14 +1863,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,11 +1880,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -1869,14 +1896,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1913,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1909,7 +1936,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1946,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1962,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1979,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,11 +2012,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2001,14 +2028,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2041,7 +2068,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2078,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,24 +2094,24 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2107,7 +2134,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2144,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,31 +2160,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2193,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,11 +2210,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2199,14 +2226,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2243,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2259,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,14 +2292,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2289,7 +2316,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2305,7 +2332,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2322,7 +2349,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2338,7 +2365,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,14 +2375,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,14 +2391,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2408,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2397,14 +2424,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2441,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,28 +2457,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2463,31 +2490,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2523,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,11 +2540,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2529,7 +2556,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,11 +2573,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -2562,14 +2589,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2606,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,14 +2622,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2639,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2628,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2672,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2721,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,11 +2738,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2727,14 +2754,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,49 +2771,148 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2609.9200000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>166</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>167</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>168</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>56</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>27</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>149</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>172</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>27</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>173</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>174</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>26</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>27</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>151</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2830.9200000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>175</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>176</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>177</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3040,10 +3166,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -320,6 +332,15 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -353,13 +374,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -536,7 +557,13 @@
     <t>كمامات قطع</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 5:38 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 22 July, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1847,14 +1874,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1903,7 +1930,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1913,14 +1940,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1929,7 +1956,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1986,7 +2013,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2002,7 +2029,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2012,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2028,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2045,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2134,7 +2161,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2160,24 +2187,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2200,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2217,7 +2244,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2226,31 +2253,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2276,11 +2303,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2382,7 +2409,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2398,7 +2425,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2415,7 +2442,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2431,7 +2458,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2523,28 +2550,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2556,31 +2583,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2606,11 +2633,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2622,7 +2649,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2639,11 +2666,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2688,7 +2715,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>154</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,14 +2798,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2804,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2870,49 +2897,148 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2830.9200000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>175</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>176</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>177</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>179</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>27</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>180</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>181</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>26</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>27</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>158</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>183</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>27</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>156</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3008.1999999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>184</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>185</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>186</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3181,10 +3307,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 5:54 PM</t>
+    <t>Tuesday, 22 July, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -392,6 +392,9 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -401,6 +404,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -563,7 +575,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 6:16 PM</t>
+    <t>Tuesday, 22 July, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,7 +2331,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2359,24 +2371,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,28 +2628,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2649,31 +2661,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,7 +2793,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -2920,7 +2932,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -2953,7 +2965,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -2996,49 +3008,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>185</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>26</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>27</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>162</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>186</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>187</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>27</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>160</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>75</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3008.1999999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>184</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>185</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>186</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3162.1999999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3322,10 +3400,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 6:17 PM</t>
+    <t>Tuesday, 22 July, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -308,6 +308,27 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -575,7 +596,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 6:23 PM</t>
+    <t>Tuesday, 22 July, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2008,7 +2029,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2025,7 +2046,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2058,7 +2079,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2074,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2100,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2117,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2150,11 +2171,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2239,7 +2260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2256,7 +2277,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2265,24 +2286,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2305,7 +2326,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2331,28 +2352,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2364,28 +2385,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2397,7 +2418,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2430,31 +2451,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2553,7 +2574,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2569,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2586,7 +2607,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2602,7 +2623,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,28 +2715,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2727,31 +2748,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,11 +2798,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2793,7 +2814,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2810,11 +2831,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,7 +2880,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2876,14 +2897,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,11 +3029,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,11 +3062,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3074,49 +3095,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>26</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>27</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>169</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>194</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>27</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>167</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>75</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3162.1999999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>188</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>189</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>190</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3502.1999999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>195</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>196</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>197</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3497,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACYCLOVIR-MISR 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>ADOL 500MG 24 CAPLETS</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>300.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -308,6 +317,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -338,6 +359,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -509,6 +539,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>بيبرونه ALGO كبيره</t>
   </si>
   <si>
@@ -557,6 +596,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>شامبو دوف 200مل</t>
   </si>
   <si>
@@ -581,9 +632,6 @@
     <t xml:space="preserve">كريم للبشره العاديه </t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -596,7 +644,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 6:33 PM</t>
+    <t>Tuesday, 22 July, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1254,7 +1302,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1263,14 +1311,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1280,14 +1328,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1303,7 +1351,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1313,14 +1361,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1336,24 +1384,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1362,20 +1410,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1386,7 +1434,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1402,7 +1450,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1412,14 +1460,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1428,14 +1476,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,14 +1493,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1468,7 +1516,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1478,14 +1526,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1501,7 +1549,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1518,7 +1566,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1534,7 +1582,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1544,14 +1592,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1560,14 +1608,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1625,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1641,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1658,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,14 +1674,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1691,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1666,7 +1714,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1724,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1692,14 +1740,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,14 +1757,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1732,7 +1780,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1765,7 +1813,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1782,7 +1830,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1798,7 +1846,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,14 +1889,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,7 +1929,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1897,7 +1945,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1955,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1971,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,14 +1988,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1956,14 +2004,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +2021,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2013,7 +2061,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2029,7 +2077,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2046,7 +2094,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2055,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2079,7 +2127,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2095,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2112,7 +2160,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2145,7 +2193,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2161,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2220,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2285,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2318,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2310,7 +2358,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2326,7 +2374,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2343,7 +2391,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,31 +2400,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,31 +2499,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2484,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2582,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,31 +2598,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,7 +2631,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2600,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2656,7 +2704,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2673,7 +2721,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2689,7 +2737,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2706,7 +2754,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2722,7 +2770,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2780,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2813,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,31 +2829,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,31 +2862,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,31 +2895,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,31 +2928,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,31 +2961,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,31 +2994,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,31 +3027,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,31 +3060,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,31 +3093,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,31 +3126,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3111,31 +3159,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,66 +3192,231 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>202</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>96</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>31</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>203</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>205</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>59</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>31</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>180</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>206</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>31</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>207</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>208</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3502.1999999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>195</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>196</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>197</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>31</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>182</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>209</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>210</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>31</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>180</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3652.1999999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>211</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>212</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>213</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3720,35 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -644,7 +644,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 7:13 PM</t>
+    <t>Tuesday, 22 July, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -77,27 +77,27 @@
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>57.4200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -320,13 +320,13 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>44.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>88.0000</t>
   </si>
   <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
@@ -530,9 +530,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -584,10 +581,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -644,7 +641,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 7:14 PM</t>
+    <t>Tuesday, 22 July, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1351,7 +1348,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1361,14 +1358,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1384,7 +1381,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1394,14 +1391,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1450,7 +1447,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1549,7 +1546,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1582,7 +1579,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1846,7 +1843,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2127,7 +2124,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2143,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2292,7 +2289,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2407,7 +2404,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2549,7 +2546,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2704,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2902,7 +2899,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,11 +2909,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -2928,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2949,7 +2946,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2961,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2978,7 +2975,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2994,7 +2991,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3011,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3027,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3048,7 +3045,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3060,7 +3057,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3077,7 +3074,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3093,7 +3090,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3110,14 +3107,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>192</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,7 +3123,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3143,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3192,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3209,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3225,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3242,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3258,7 +3255,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3275,7 +3272,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3291,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,7 +3305,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3324,7 +3321,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3341,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3357,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,7 +3371,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3386,13 +3383,13 @@
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="P71" s="13">
-        <v>3652.1999999999998</v>
+        <v>3709.7199999999998</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c t="s" r="A72" s="14">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3400,13 +3397,13 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c t="s" r="G72" s="15">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="16"/>
       <c t="s" r="K72" s="17">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -425,13 +437,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>92.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -494,9 +506,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -635,13 +644,16 @@
     <t>كمامات قطع</t>
   </si>
   <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 7:37 PM</t>
+    <t>Tuesday, 22 July, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1865,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,11 +1898,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,11 +1964,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2018,14 +2030,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2074,7 +2086,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2124,7 +2136,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2140,7 +2152,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2173,7 +2185,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2190,7 +2202,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2289,7 +2301,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2470,7 +2482,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2509,18 +2521,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,31 +2541,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,7 +2574,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,31 +2607,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,28 +2640,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2784,7 +2796,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2800,7 +2812,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2817,7 +2829,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2833,7 +2845,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2850,7 +2862,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2932,24 +2944,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2965,7 +2977,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2991,7 +3003,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3008,11 +3020,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3031,7 +3043,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,7 +3053,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3064,7 +3076,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3090,7 +3102,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3107,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,7 +3135,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3140,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3229,7 +3241,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3262,7 +3274,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3284,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3317,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,49 +3383,115 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3709.7199999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>211</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>179</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>31</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>205</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>212</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>213</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>31</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>182</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3781.7199999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>214</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>215</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>216</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3820,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 7:56 PM</t>
+    <t>Tuesday, 22 July, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
   </si>
   <si>
@@ -653,7 +662,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:01 PM</t>
+    <t>Tuesday, 22 July, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2647,24 +2656,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2680,21 +2689,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,7 +2765,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2779,7 +2788,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2895,7 +2904,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2921,11 +2930,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2977,24 +2986,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3036,7 +3045,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3076,7 +3085,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,7 +3095,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3109,7 +3118,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,7 +3177,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3274,7 +3283,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3307,7 +3316,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,11 +3326,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,49 +3458,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>216</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>31</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>185</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>82</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3781.7199999999998</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>214</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>215</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>216</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3788.77</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>217</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>218</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>219</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3830,10 +3872,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -488,12 +497,30 @@
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
     <t>19.8000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -662,7 +689,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:13 PM</t>
+    <t>Tuesday, 22 July, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1858,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1841,7 +1868,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1864,7 +1891,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1874,7 +1901,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1897,7 +1924,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1914,7 +1941,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1930,7 +1957,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1940,11 +1967,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1973,14 +2000,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1996,7 +2023,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2029,7 +2056,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,14 +2066,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,14 +2099,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2088,14 +2115,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2105,11 +2132,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2121,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2145,7 +2172,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2161,7 +2188,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2171,14 +2198,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2211,7 +2238,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2260,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2293,7 +2320,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2326,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2336,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2369,14 +2396,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2402,14 +2429,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2425,7 +2452,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2442,7 +2469,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2458,7 +2485,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2491,7 +2518,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,11 +2528,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2517,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2550,31 +2577,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2590,24 +2617,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,7 +2643,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2633,14 +2660,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2656,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,7 +2693,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2689,24 +2716,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2722,21 +2749,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2781,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,11 +2825,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2814,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2854,7 +2881,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2871,7 +2898,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2887,7 +2914,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2920,7 +2947,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2953,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2963,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2979,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2996,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3012,28 +3039,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3045,28 +3072,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3078,31 +3105,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3111,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,11 +3155,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3144,7 +3171,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3161,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3177,7 +3204,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3217,7 +3244,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3227,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3264,7 +3291,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3293,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>206</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3316,7 +3343,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3326,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3342,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3359,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3375,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3392,11 +3419,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3425,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3441,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3458,11 +3485,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3474,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3491,49 +3518,148 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3788.77</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>222</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>30</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>31</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>196</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>223</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>191</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>31</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>217</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>219</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>224</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>225</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>31</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>194</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3962.77</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>226</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>227</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>228</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3877,10 +4003,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -161,6 +173,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -221,6 +242,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -341,9 +371,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -404,6 +431,12 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MUPIRAX 2% OINT. 10 GM</t>
   </si>
   <si>
@@ -689,7 +722,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:20 PM</t>
+    <t>Tuesday, 22 July, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1571,14 +1604,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1587,14 +1620,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1604,11 +1637,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1620,14 +1653,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1637,14 +1670,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1653,14 +1686,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1693,7 +1726,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1703,11 +1736,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1719,14 +1752,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1736,14 +1769,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1752,14 +1785,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1769,11 +1802,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1785,14 +1818,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,14 +1835,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1825,7 +1858,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1835,11 +1868,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1851,14 +1884,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1875,7 +1908,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1891,7 +1924,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,14 +1934,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1924,7 +1957,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,14 +1967,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1950,14 +1983,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1983,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2033,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,11 +2066,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2049,14 +2082,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,14 +2099,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2082,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,14 +2132,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2122,7 +2155,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,11 +2165,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2148,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,11 +2198,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2181,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,14 +2231,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,14 +2247,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2280,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2271,7 +2304,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2363,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,14 +2396,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2386,7 +2419,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2429,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,14 +2445,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,14 +2478,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,11 +2495,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2478,14 +2511,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2528,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,11 +2561,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2551,21 +2584,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2577,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,11 +2627,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2610,28 +2643,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2643,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,7 +2808,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2792,11 +2825,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2808,14 +2841,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,11 +2858,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2841,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,11 +2891,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2874,31 +2907,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2957,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2947,7 +2980,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2964,7 +2997,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2980,7 +3013,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3023,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,11 +3056,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3039,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,7 +3122,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3112,7 +3145,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3129,7 +3162,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3145,24 +3178,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3178,13 +3211,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3192,7 +3225,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3204,24 +3237,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3244,24 +3277,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3277,7 +3310,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,11 +3320,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3303,7 +3336,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3320,14 +3353,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,7 +3369,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3353,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3386,11 +3419,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3402,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,11 +3452,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3435,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3452,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3501,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3508,7 +3541,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,11 +3551,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3534,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3551,11 +3584,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3567,14 +3600,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3584,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3600,14 +3633,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,49 +3650,181 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3962.77</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>226</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>227</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>231</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>221</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>31</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>232</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>233</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>30</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>31</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>207</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>234</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>202</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>31</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>228</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>235</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>236</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>31</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>205</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4105.2250000000004</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>237</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>238</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>239</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4018,10 +4183,30 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -431,6 +440,27 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -521,12 +551,6 @@
     <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
   </si>
   <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -641,9 +665,6 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -668,7 +689,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -722,7 +743,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:22 PM</t>
+    <t>Tuesday, 22 July, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2044,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2056,7 +2077,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,7 +2087,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2089,7 +2110,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2106,7 +2127,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2122,7 +2143,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,11 +2153,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2188,7 +2209,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2221,7 +2242,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,14 +2285,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,11 +2318,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2313,14 +2334,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2337,7 +2358,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2353,7 +2374,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2370,7 +2391,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2386,7 +2407,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2403,7 +2424,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,14 +2433,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,14 +2450,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2452,7 +2473,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2485,7 +2506,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2518,7 +2539,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2577,28 +2598,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2610,14 +2631,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,14 +2648,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2643,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,14 +2681,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2676,7 +2697,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2689,15 +2710,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2733,7 +2754,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2749,7 +2770,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2775,28 +2796,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,28 +2895,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2907,28 +2928,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2940,7 +2961,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3006,31 +3027,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,7 +3060,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3079,7 +3100,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3112,7 +3133,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3138,14 +3159,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3176,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3209,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3204,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,11 +3242,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3237,14 +3258,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,14 +3275,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3277,7 +3298,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3294,7 +3315,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3310,17 +3331,17 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3343,21 +3364,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3376,13 +3397,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3393,7 +3414,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3419,7 +3440,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3456,7 +3477,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3492,7 +3513,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3522,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,14 +3539,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,14 +3555,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,11 +3572,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3567,14 +3588,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,14 +3605,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3600,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3617,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,11 +3671,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3673,7 +3694,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3687,7 +3708,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3699,14 +3720,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,11 +3737,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3732,14 +3753,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3770,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3765,14 +3786,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,49 +3803,148 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4105.2250000000004</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>237</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>238</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>239</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>240</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>30</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>31</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>215</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>241</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>210</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>31</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>235</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>242</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>243</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>31</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>213</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4309.75</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>244</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>245</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>246</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4203,10 +4323,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALPHAVIM 300 - 20 CAPS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -464,9 +482,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>MUPIRAX 2% OINT. 10 GM</t>
   </si>
   <si>
@@ -485,6 +500,18 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -551,6 +578,15 @@
     <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
   </si>
   <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -563,6 +599,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -692,6 +737,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -710,9 +761,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>قصافات كبار</t>
   </si>
   <si>
@@ -743,7 +791,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:25 PM</t>
+    <t>Tuesday, 22 July, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,7 +1531,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1493,14 +1541,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1509,31 +1557,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1542,20 +1590,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1566,7 +1614,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1582,7 +1630,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1592,11 +1640,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1608,14 +1656,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1625,11 +1673,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1641,14 +1689,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1658,14 +1706,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1681,7 +1729,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1691,7 +1739,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1714,7 +1762,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1731,7 +1779,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1747,7 +1795,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1780,7 +1828,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1790,11 +1838,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1806,14 +1854,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1823,11 +1871,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1839,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1856,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1872,14 +1920,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1889,14 +1937,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1912,7 +1960,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1922,11 +1970,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1938,14 +1986,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1978,7 +2026,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1988,11 +2036,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2004,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2028,7 +2076,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2044,7 +2092,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2061,7 +2109,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2077,7 +2125,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2110,7 +2158,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2120,7 +2168,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2143,7 +2191,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2160,7 +2208,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2176,7 +2224,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2186,11 +2234,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2202,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2219,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2242,7 +2290,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2275,7 +2323,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,14 +2333,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2301,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2318,14 +2366,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2334,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2351,11 +2399,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2367,14 +2415,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2391,7 +2439,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2407,7 +2455,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2424,7 +2472,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2440,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2457,7 +2505,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2466,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2499,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2516,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2539,7 +2587,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2572,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2582,14 +2630,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2598,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,14 +2663,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2631,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,14 +2696,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2664,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2697,24 +2745,24 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2737,7 +2785,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2747,11 +2795,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2763,28 +2811,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2796,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2813,14 +2861,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2829,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2862,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2879,11 +2927,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2895,31 +2943,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2928,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2945,14 +2993,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2961,14 +3009,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2978,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2994,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3059,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3027,31 +3075,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3060,7 +3108,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3077,11 +3125,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3093,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3110,11 +3158,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3126,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3143,11 +3191,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3159,31 +3207,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3199,7 +3247,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3216,7 +3264,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3232,7 +3280,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3242,11 +3290,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3258,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3323,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3291,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3308,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3324,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3341,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3357,7 +3405,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3374,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3390,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,28 +3471,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3456,31 +3504,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,31 +3537,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,24 +3570,24 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3562,21 +3610,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3595,13 +3643,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3612,7 +3660,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,31 +3669,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3661,21 +3709,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3687,28 +3735,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3720,28 +3768,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3753,28 +3801,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3786,31 +3834,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3826,24 +3874,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,28 +3900,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3885,66 +3933,297 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4309.75</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>244</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>248</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>34</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>249</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>250</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>119</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>34</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>251</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>253</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>69</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>34</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>228</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>254</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>245</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>246</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>34</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>255</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>256</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>33</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>34</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>230</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>257</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>225</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>34</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>251</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>259</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>34</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>228</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4807.0100000000002</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>260</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>261</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>262</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4338,10 +4617,45 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>105.0000</t>
+    <t>210.0000</t>
   </si>
   <si>
     <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
@@ -791,7 +791,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:35 PM</t>
+    <t>Tuesday, 22 July, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1795,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1812,7 +1812,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -4193,7 +4193,7 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>4807.0100000000002</v>
+        <v>4912.0100000000002</v>
       </c>
       <c r="Q91" s="13"/>
     </row>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -290,6 +299,21 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -563,7 +587,10 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>46.0000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -614,6 +641,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -725,10 +761,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1630,7 +1663,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1663,7 +1696,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1673,11 +1706,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1689,14 +1722,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1706,11 +1739,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1722,14 +1755,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1739,14 +1772,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1762,7 +1795,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1772,7 +1805,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1795,7 +1828,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1828,7 +1861,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1845,7 +1878,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1861,7 +1894,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1871,11 +1904,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1887,14 +1920,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1904,11 +1937,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1920,14 +1953,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1937,14 +1970,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1953,14 +1986,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1970,14 +2003,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1993,7 +2026,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2003,11 +2036,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2019,14 +2052,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2059,7 +2092,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2069,11 +2102,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2085,14 +2118,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2109,7 +2142,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2125,7 +2158,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2142,7 +2175,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2158,7 +2191,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2201,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2191,7 +2224,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,14 +2234,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,14 +2250,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2267,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2283,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2300,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,14 +2316,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2333,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2316,14 +2349,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2366,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2349,14 +2382,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,14 +2399,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,14 +2415,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2432,14 +2465,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2455,7 +2488,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,14 +2498,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2481,14 +2514,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,11 +2531,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2514,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,14 +2564,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2580,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,14 +2597,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2580,14 +2613,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2597,14 +2630,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2613,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2646,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,11 +2696,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2679,14 +2712,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,14 +2729,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2712,14 +2745,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2795,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,28 +2844,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2844,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2861,11 +2894,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2877,28 +2910,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2910,7 +2943,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2927,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2943,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2960,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2976,14 +3009,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,14 +3026,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3042,14 +3075,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3066,7 +3099,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3088,15 +3121,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3108,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,11 +3158,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3141,28 +3174,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3174,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3224,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,31 +3240,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3240,7 +3273,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3257,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,31 +3339,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3422,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3438,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3488,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3471,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3511,7 +3544,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3528,7 +3561,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3544,7 +3577,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3577,7 +3610,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3594,7 +3627,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3610,7 +3643,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,11 +3653,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3636,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,31 +3702,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,28 +3735,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3735,28 +3768,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3768,31 +3801,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,11 +3851,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3834,7 +3867,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3851,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,7 +3900,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3884,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,11 +3950,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3933,14 +3966,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,11 +3983,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3973,7 +4006,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3987,10 +4020,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4039,7 +4072,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,11 +4082,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4065,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4115,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4098,14 +4131,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4131,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,11 +4181,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4164,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,49 +4214,181 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4912.0100000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>260</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>261</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>265</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>256</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>34</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>266</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>267</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>33</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>34</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>242</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>268</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>237</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>34</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>262</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>269</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>270</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>34</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>240</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5062.5299999999997</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>271</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>272</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>273</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4652,10 +4817,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -155,273 +155,273 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>35.1450</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -824,7 +824,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:49 PM</t>
+    <t>Tuesday, 22 July, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1779,7 +1779,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2092,7 +2092,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2109,7 +2109,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2125,7 +2125,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2135,11 +2135,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2168,11 +2168,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2201,11 +2201,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2217,14 +2217,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2234,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2399,11 +2399,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2448,14 +2448,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2469,10 +2469,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>121</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2481,14 +2481,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2514,14 +2514,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2531,11 +2531,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2564,11 +2564,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2597,11 +2597,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2613,14 +2613,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2917,7 +2917,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2931,10 +2931,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3026,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3676,7 +3676,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3808,7 +3808,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4056,7 +4056,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4171,7 +4171,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1">
       <c r="P95" s="13">
-        <v>5062.5299999999997</v>
+        <v>5240.2200000000003</v>
       </c>
       <c r="Q95" s="13"/>
     </row>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 8:56 PM</t>
+    <t>Tuesday, 22 July, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CERELAC قمح ولبن</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -464,7 +473,7 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>52.0000</t>
+    <t>104.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -518,9 +527,6 @@
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>27.5000</t>
   </si>
   <si>
@@ -824,7 +830,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:04 PM</t>
+    <t>Tuesday, 22 July, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,13 +2032,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2043,7 +2049,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2059,7 +2065,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2069,11 +2075,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2109,7 +2115,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2125,7 +2131,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2142,7 +2148,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2158,7 +2164,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2175,7 +2181,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2191,7 +2197,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2208,7 +2214,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2224,7 +2230,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2290,7 +2296,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2300,7 +2306,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2323,7 +2329,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2356,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2422,7 +2428,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2455,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2571,7 +2577,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2604,7 +2610,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2620,7 +2626,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2670,7 +2676,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2719,7 +2725,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2752,7 +2758,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2785,7 +2791,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,11 +2867,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2884,7 +2890,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2910,28 +2916,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2943,28 +2949,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2983,7 +2989,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3000,7 +3006,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3016,7 +3022,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3174,31 +3180,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3207,31 +3213,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3240,7 +3246,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3313,7 +3319,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3339,31 +3345,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3372,28 +3378,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3405,7 +3411,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3471,7 +3477,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3488,11 +3494,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,7 +3527,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3544,7 +3550,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,11 +3560,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3570,7 +3576,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3587,11 +3593,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,11 +3626,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,7 +3774,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3785,7 +3791,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3808,7 +3814,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,31 +3840,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,11 +3890,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3921,7 +3927,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,7 +3956,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3973,7 +3979,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,11 +3989,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4020,10 +4026,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,7 +4038,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>252</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>136</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4072,7 +4078,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4105,7 +4111,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4131,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,11 +4154,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4171,7 +4177,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4185,7 +4191,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,11 +4220,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4270,7 +4276,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4286,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,49 +4352,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5240.2200000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>271</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>272</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>34</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>242</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5347.2200000000003</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>273</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>274</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>275</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4837,10 +4876,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:10 PM</t>
+    <t>Tuesday, 22 July, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -551,6 +551,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -674,6 +686,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -767,7 +788,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -830,7 +854,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:11 PM</t>
+    <t>Tuesday, 22 July, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3154,7 +3178,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,11 +3221,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3213,28 +3237,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,11 +3287,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3286,21 +3310,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3312,7 +3336,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3352,7 +3376,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3378,31 +3402,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3418,7 +3442,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3451,21 +3475,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3484,7 +3508,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3501,7 +3525,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3517,7 +3541,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3576,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,11 +3617,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,11 +3650,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3675,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,7 +3765,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3758,11 +3782,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3774,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3815,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3807,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,28 +3897,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3906,28 +3930,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3939,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,14 +3996,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,7 +4013,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4026,7 +4050,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4059,10 +4083,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4078,7 +4102,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,14 +4112,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4111,7 +4135,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,11 +4145,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4144,7 +4168,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4178,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>260</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4177,7 +4201,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4211,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4210,7 +4234,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,11 +4244,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4236,14 +4260,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4269,14 +4293,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,11 +4310,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4302,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,11 +4343,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4335,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4376,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4368,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,49 +4409,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>277</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>33</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>34</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>251</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>246</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>34</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>272</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>279</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>280</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>34</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>249</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>111</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5347.2200000000003</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>273</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>274</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>275</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5442.6199999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>281</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>282</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>283</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4881,10 +5004,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -854,7 +854,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:17 PM</t>
+    <t>Tuesday, 22 July, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
   </si>
   <si>
@@ -347,12 +356,30 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
     <t>25.7400</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
   </si>
   <si>
@@ -506,12 +533,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -845,6 +866,9 @@
     <t>كمامات قطع</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
@@ -854,7 +878,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:20 PM</t>
+    <t>Tuesday, 22 July, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2386,7 +2410,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2403,7 +2427,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2419,7 +2443,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2429,11 +2453,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2518,7 +2542,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2561,11 +2585,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,11 +2618,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2660,11 +2684,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2693,14 +2717,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2726,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2759,11 +2783,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2848,7 +2872,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2973,31 +2997,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3006,14 +3030,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,14 +3047,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3056,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3072,28 +3096,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3122,11 +3146,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,7 +3179,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3178,7 +3202,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,11 +3212,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3211,7 +3235,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3244,7 +3268,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,11 +3311,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3303,31 +3327,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3390,10 +3414,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3402,31 +3426,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3475,24 +3499,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,7 +3525,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3518,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,7 +3565,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,31 +3591,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3607,7 +3631,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3624,7 +3648,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3640,7 +3664,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,11 +3773,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3806,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3864,7 +3888,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3881,11 +3905,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3897,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3930,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,28 +4020,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4029,28 +4053,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4062,31 +4086,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,7 +4136,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4149,7 +4173,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4185,7 +4209,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,14 +4218,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4235,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,14 +4251,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,11 +4268,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4260,14 +4284,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4301,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,14 +4317,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,14 +4334,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,14 +4350,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,11 +4367,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4359,14 +4383,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4400,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4392,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,11 +4433,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4425,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4458,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4499,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4491,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,49 +4532,181 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5442.6199999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>281</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>282</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>283</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>284</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>33</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>34</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>258</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>285</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>75</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>34</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>256</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>286</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>253</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>34</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>279</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>287</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>288</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>34</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>256</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5691.1199999999999</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>289</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>290</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>291</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5019,10 +5175,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -464,6 +464,15 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -531,6 +540,15 @@
   </si>
   <si>
     <t>4:0</t>
+  </si>
+  <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
   </si>
   <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
@@ -2839,7 +2857,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2856,7 +2874,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2905,7 +2923,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2938,7 +2956,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2955,7 +2973,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2971,7 +2989,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3070,7 +3088,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,28 +3114,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3146,11 +3164,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3162,7 +3180,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3175,18 +3193,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3195,7 +3213,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3212,11 +3230,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3311,11 +3329,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,11 +3428,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3426,28 +3444,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3492,28 +3510,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3525,7 +3543,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3591,31 +3609,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,28 +3675,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3763,7 +3781,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,11 +3791,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,11 +3824,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,7 +3857,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3862,7 +3880,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3895,7 +3913,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3928,7 +3946,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3945,7 +3963,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3961,7 +3979,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3978,7 +3996,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3994,7 +4012,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4011,7 +4029,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4027,7 +4045,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4044,7 +4062,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4060,7 +4078,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,24 +4137,24 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4159,13 +4177,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4173,10 +4191,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4202,11 +4220,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4235,11 +4253,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4251,7 +4269,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4268,11 +4286,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>267</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4357,7 +4375,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4433,11 +4451,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4456,7 +4474,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4466,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,11 +4517,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4532,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4647,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,7 +4682,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4675,38 +4693,104 @@
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5691.1199999999999</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>289</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>290</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>291</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>292</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>259</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>34</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>285</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>293</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>294</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>34</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>262</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5916.1199999999999</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>295</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>296</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>297</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5195,10 +5279,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -155,132 +155,135 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CERELAC قمح ولبن</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>35.1450</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CERELAC قمح ولبن</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -455,9 +458,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:23 PM</t>
+    <t>Tuesday, 22 July, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1851,7 +1851,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2197,7 +2197,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2214,7 +2214,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2230,7 +2230,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2306,11 +2306,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2322,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2339,14 +2339,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2355,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2405,11 +2405,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2471,11 +2471,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2652,14 +2652,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2673,10 +2673,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2685,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2718,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2735,11 +2735,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2817,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3187,7 +3187,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3201,10 +3201,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3296,11 +3296,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3692,11 +3692,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3758,11 +3758,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -4045,7 +4045,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4177,7 +4177,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4425,7 +4425,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4540,7 +4540,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="105" ht="24.75" customHeight="1">
       <c r="P105" s="13">
-        <v>5916.1199999999999</v>
+        <v>5738.4300000000003</v>
       </c>
       <c r="Q105" s="13"/>
     </row>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -785,6 +785,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>ببرونه الجو كبيره</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -896,7 +905,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:26 PM</t>
+    <t>Tuesday, 22 July, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4210,7 +4219,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,7 +4229,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4243,7 +4252,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4269,7 +4278,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4309,7 +4318,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4368,7 +4377,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,7 +4410,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>48</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4521,7 +4530,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4573,7 +4582,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,11 +4724,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,49 +4757,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>296</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>297</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>34</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>265</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>115</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5738.4300000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>295</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>296</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>297</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5768.4300000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>298</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>299</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>300</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5289,10 +5331,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -905,7 +905,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:27 PM</t>
+    <t>Tuesday, 22 July, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -822,6 +822,15 @@
   </si>
   <si>
     <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -4398,7 +4407,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4410,7 +4419,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,7 +4452,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>48</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4563,7 +4572,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4575,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4615,7 +4624,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4641,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,49 +4799,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>299</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>300</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>34</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>265</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>115</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5768.4300000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>298</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>299</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>300</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5943.4300000000003</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>301</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>302</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>303</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5336,10 +5378,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -551,6 +560,12 @@
     <t>159.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -914,7 +929,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:34 PM</t>
+    <t>Tuesday, 22 July, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3139,7 +3154,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,11 +3197,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3205,24 +3220,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,28 +3279,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3314,11 +3329,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,7 +3411,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3413,11 +3428,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3528,28 +3543,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3594,28 +3609,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3627,7 +3642,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3644,14 +3659,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3700,24 +3715,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,28 +3774,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,7 +3890,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3898,7 +3913,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3931,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3956,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4022,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4195,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4212,7 +4227,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4228,21 +4243,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4254,31 +4269,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4327,7 +4342,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,7 +4352,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4360,7 +4375,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,11 +4385,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4426,7 +4441,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4476,7 +4491,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,7 +4500,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4502,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,7 +4599,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4601,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4617,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4657,7 +4672,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4682,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4716,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4748,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4782,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4814,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,7 +4847,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4843,38 +4858,104 @@
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5943.4300000000003</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>301</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>302</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>303</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>267</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>34</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>296</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>304</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>305</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>34</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>270</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6031.3000000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>306</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>307</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>308</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5383,10 +5464,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -275,7 +284,7 @@
     <t>114.00</t>
   </si>
   <si>
-    <t>37.6200</t>
+    <t>75.2400</t>
   </si>
   <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
@@ -359,6 +368,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -572,9 +593,6 @@
     <t>MUPIRAX 2% OINT. 10 GM</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -809,6 +827,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -869,9 +899,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -929,7 +956,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:44 PM</t>
+    <t>Tuesday, 22 July, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2125,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2124,31 +2151,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2164,13 +2191,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2181,7 +2208,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2197,7 +2224,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2207,11 +2234,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2263,7 +2290,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2313,7 +2340,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2346,7 +2373,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2362,7 +2389,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2428,7 +2455,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,7 +2465,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2494,7 +2521,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2511,7 +2538,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2527,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2560,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,11 +2597,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2725,7 +2752,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2808,7 +2835,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2824,7 +2851,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,11 +2861,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,11 +2927,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>157</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2956,7 +2983,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2989,7 +3016,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3006,7 +3033,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,7 +3042,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3072,7 +3099,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3088,7 +3115,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,11 +3191,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,31 +3306,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,28 +3372,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3378,7 +3405,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3395,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,11 +3620,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3609,28 +3636,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,11 +3686,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3675,28 +3702,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3708,7 +3735,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3725,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,11 +3785,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3774,31 +3801,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,28 +3867,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3946,7 +3973,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,11 +3983,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3972,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +4016,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,7 +4049,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4045,7 +4072,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4078,7 +4105,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4111,7 +4138,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4128,7 +4155,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4144,7 +4171,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4161,7 +4188,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4177,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4194,7 +4221,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4210,7 +4237,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4227,7 +4254,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4243,7 +4270,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,24 +4329,24 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4342,24 +4369,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4375,7 +4402,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4389,7 +4416,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,11 +4445,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4478,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4467,7 +4494,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4484,11 +4511,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4500,7 +4527,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4517,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,7 +4593,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4583,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,11 +4643,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4632,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,7 +4742,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4738,7 +4765,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4775,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4808,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4797,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,11 +4841,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4830,7 +4857,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4847,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4863,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4896,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,49 +4940,148 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6031.3000000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>311</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>78</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>34</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>280</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>312</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>277</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>34</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>305</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>306</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>307</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>308</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>313</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>314</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>34</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>280</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6148.2700000000004</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>315</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>316</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>317</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5474,10 +5600,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>75.2400</t>
   </si>
   <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -716,6 +725,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -956,7 +974,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:47 PM</t>
+    <t>Tuesday, 22 July, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2323,7 +2341,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,11 +2351,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2373,7 +2391,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2389,7 +2407,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2406,7 +2424,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2422,7 +2440,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,7 +2516,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2554,7 +2572,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2571,7 +2589,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,11 +2615,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2653,7 +2671,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,11 +2681,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,7 +2714,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2719,7 +2737,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2736,7 +2754,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2752,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2785,7 +2803,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,11 +2879,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2901,7 +2919,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2934,7 +2952,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2967,7 +2985,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2983,7 +3001,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3000,7 +3018,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3016,7 +3034,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3033,7 +3051,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3082,7 +3100,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3115,7 +3133,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3132,7 +3150,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3148,7 +3166,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3176,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,11 +3242,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3247,7 +3265,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3280,7 +3298,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3346,7 +3364,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,28 +3390,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3405,31 +3423,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,11 +3539,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3544,7 +3562,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3561,7 +3579,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3577,7 +3595,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3643,7 +3661,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3702,31 +3720,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,24 +3760,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,7 +3786,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,7 +3819,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,24 +3892,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,28 +3918,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3950,11 +3968,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4039,7 +4057,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,11 +4100,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,7 +4133,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4138,7 +4156,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4171,7 +4189,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4204,7 +4222,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4221,7 +4239,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4237,7 +4255,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4254,7 +4272,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,7 +4288,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4287,7 +4305,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4303,7 +4321,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4320,7 +4338,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4336,7 +4354,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,24 +4413,24 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4435,24 +4453,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>48</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4515,7 +4533,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4527,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4562,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4560,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,11 +4595,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4593,7 +4611,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4610,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4626,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4659,7 +4677,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4676,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>294</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4709,14 +4727,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,14 +4776,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4808,11 +4826,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4831,7 +4849,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,11 +4859,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4857,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4892,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4890,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,11 +4925,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4923,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4956,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4989,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5022,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,49 +5057,115 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6148.2700000000004</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>315</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>316</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>317</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>318</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>283</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>34</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>311</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>319</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>320</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>34</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>286</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6242.8199999999997</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>321</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>322</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>323</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5615,10 +5699,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -257,6 +257,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -410,9 +422,6 @@
     <t>162.00</t>
   </si>
   <si>
-    <t>81.0000</t>
-  </si>
-  <si>
     <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
   </si>
   <si>
@@ -545,9 +554,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -767,6 +773,12 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -812,6 +824,15 @@
     <t>94.5000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
@@ -902,6 +923,9 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -917,6 +941,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -950,6 +977,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -962,6 +992,12 @@
     <t>كمامات قطع</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -971,10 +1007,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 22 July, 2025 9:48 PM</t>
+    <t>Tuesday, 22 July, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2242,7 +2275,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2252,14 +2285,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2268,14 +2301,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2308,7 +2341,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2334,14 +2367,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,14 +2384,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2407,7 +2440,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,14 +2450,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2433,14 +2466,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2450,14 +2483,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2466,14 +2499,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2490,7 +2523,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,14 +2549,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,11 +2582,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2565,7 +2598,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2582,11 +2615,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2671,7 +2704,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,11 +2714,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,11 +2747,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2803,7 +2836,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2836,7 +2869,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,11 +2945,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2928,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2952,7 +2985,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2985,7 +3018,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3001,7 +3034,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3018,7 +3051,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3034,7 +3067,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3051,7 +3084,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3067,7 +3100,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3084,7 +3117,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3143,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3133,7 +3166,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3166,7 +3199,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3183,7 +3216,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,11 +3308,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,11 +3341,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3374,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3364,7 +3397,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,11 +3407,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3390,14 +3423,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3430,21 +3463,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3456,31 +3489,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3496,7 +3529,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,14 +3539,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3529,7 +3562,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,11 +3605,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3671,11 +3704,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,31 +3786,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,31 +3819,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,7 +3852,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3836,14 +3869,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3869,14 +3902,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3892,7 +3925,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3935,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,31 +3951,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,28 +3984,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3984,7 +4017,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4001,11 +4034,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4017,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4083,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,14 +4133,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,7 +4166,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4156,7 +4189,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,11 +4199,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4182,7 +4215,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4199,11 +4232,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,11 +4265,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4248,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4298,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4281,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4347,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,28 +4512,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4512,28 +4545,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4545,31 +4578,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,11 +4628,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4611,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4661,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4644,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,7 +4694,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4698,7 +4731,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4710,7 +4743,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4727,11 +4760,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4750,7 +4783,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,7 +4809,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4793,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4816,7 +4849,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>165</v>
+        <v>303</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4866,7 +4899,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,7 +4958,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4948,7 +4981,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,11 +4991,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4974,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5024,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5007,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5057,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5040,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5090,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5073,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5106,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,49 +5156,214 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6242.8199999999997</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>326</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>33</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>34</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>295</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>327</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>328</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>34</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>149</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>329</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>78</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>34</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>293</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>330</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>290</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>34</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>320</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>321</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>322</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>323</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>331</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>272</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>34</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>293</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6570.5299999999997</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>332</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>333</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>334</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5709,10 +5907,35 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -617,6 +617,12 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
     <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
   </si>
   <si>
@@ -932,10 +938,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1007,7 +1010,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:51 PM</t>
+    <t>Tuesday, 22 July, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3595,7 +3598,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,11 +3608,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3671,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,31 +3822,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3852,31 +3855,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,7 +3888,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3958,7 +3961,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,31 +3987,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4017,28 +4020,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4050,7 +4053,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4067,11 +4070,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4083,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4222,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,11 +4235,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4265,11 +4268,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,7 +4301,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4331,11 +4334,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4347,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,11 +4367,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4380,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4400,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4413,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4446,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,7 +4548,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4562,7 +4565,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4585,7 +4588,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,31 +4614,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4677,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4710,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4764,7 +4767,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,7 +4796,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4816,7 +4819,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4842,7 +4845,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4859,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,7 +4878,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>308</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,7 +4911,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>168</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,11 +4994,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5007,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5040,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,11 +5060,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5073,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5113,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5146,7 +5149,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5172,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5212,7 +5215,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5238,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5278,7 +5281,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5311,7 +5314,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,49 +5324,82 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>332</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>274</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>34</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>295</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>125</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6570.5299999999997</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>332</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6642.5299999999997</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>333</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
         <v>334</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>335</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5932,10 +5968,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -260,300 +260,315 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>75.2400</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>75.2400</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 300MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>-19.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -806,9 +821,6 @@
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -899,6 +911,18 @@
     <t>35.00</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>89:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -974,12 +998,6 @@
     <t>قصافات كبار</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1010,7 +1028,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:52 PM</t>
+    <t>Tuesday, 22 July, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2295,7 +2313,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2820,7 +2838,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2832,7 +2850,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2849,11 +2867,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2865,7 +2883,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2882,11 +2900,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2898,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2919,10 +2937,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2948,11 +2966,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,11 +2999,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2997,7 +3015,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3014,11 +3032,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3030,7 +3048,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3063,7 +3081,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3080,11 +3098,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3169,7 +3187,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3186,7 +3204,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3212,11 +3230,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,28 +3510,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3525,31 +3543,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,11 +3659,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,11 +3692,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3756,14 +3774,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,11 +3791,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,31 +3873,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,31 +3906,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,7 +3939,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,7 +3972,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,31 +4038,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,28 +4071,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4086,7 +4104,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,11 +4253,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,11 +4286,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4284,7 +4302,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4350,7 +4368,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4367,11 +4385,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,11 +4418,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4583,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,7 +4599,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4598,11 +4616,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,31 +4665,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4746,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,11 +4781,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4779,7 +4797,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4796,11 +4814,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,11 +4847,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4845,7 +4863,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4862,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4878,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,7 +4929,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4928,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,7 +4962,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4961,14 +4979,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,14 +5012,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5027,14 +5045,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,7 +5061,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5060,11 +5078,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>152</v>
+        <v>323</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,11 +5111,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5109,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,11 +5144,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5142,14 +5160,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,11 +5177,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5175,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5192,11 +5210,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5208,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5225,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5241,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5258,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>149</v>
+        <v>332</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5274,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5291,11 +5309,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5307,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5324,11 +5342,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5340,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,7 +5375,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5368,38 +5386,104 @@
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6642.5299999999997</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>333</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>334</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>335</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>337</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>296</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>34</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>302</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>338</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>278</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>34</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>299</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6626.0799999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>339</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>340</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>341</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5973,10 +6057,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -728,6 +737,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
   </si>
   <si>
@@ -1028,7 +1043,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:54 PM</t>
+    <t>Tuesday, 22 July, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2890,7 +2905,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2907,7 +2922,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2923,7 +2938,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2999,11 +3014,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3039,7 +3054,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3072,7 +3087,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3088,7 +3103,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3105,7 +3120,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3121,7 +3136,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3138,7 +3153,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3154,7 +3169,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3171,7 +3186,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3187,7 +3202,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3204,7 +3219,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3253,7 +3268,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3286,7 +3301,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3303,7 +3318,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3319,7 +3334,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3329,14 +3344,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,11 +3410,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3418,7 +3433,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3451,7 +3466,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3517,7 +3532,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3543,28 +3558,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3576,31 +3591,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,11 +3707,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3748,7 +3763,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3765,7 +3780,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3781,7 +3796,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,11 +3839,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3847,7 +3862,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3905,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3906,31 +3921,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3946,24 +3961,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,7 +3987,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3989,14 +4004,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,7 +4020,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4078,24 +4093,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4104,7 +4119,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,28 +4152,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4202,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,11 +4235,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4236,7 +4251,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4253,11 +4268,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4269,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4301,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4309,7 +4324,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4342,7 +4357,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,11 +4367,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,7 +4400,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4408,7 +4423,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4441,7 +4456,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,11 +4466,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4507,7 +4522,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4524,7 +4539,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4540,7 +4555,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>278</v>
+        <v>100</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4614,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4631,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4647,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4664,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4672,7 +4687,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4689,7 +4704,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4705,21 +4720,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4731,31 +4746,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,14 +4779,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,11 +4796,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4797,14 +4812,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,11 +4829,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4847,11 +4862,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4863,7 +4878,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4880,11 +4895,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4896,14 +4911,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,7 +4928,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4969,7 +4984,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +4994,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,7 +5010,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5012,14 +5027,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>317</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,7 +5043,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5045,14 +5060,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>319</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5068,7 +5083,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5093,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5109,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5126,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,7 +5142,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5144,11 +5159,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5160,14 +5175,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>153</v>
+        <v>328</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,11 +5192,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5193,14 +5208,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5210,11 +5225,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5226,14 +5241,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,11 +5258,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5259,14 +5274,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5291,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5292,14 +5307,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,11 +5324,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5325,14 +5340,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,11 +5357,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5358,14 +5373,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,11 +5390,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5391,14 +5406,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,11 +5423,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5424,14 +5439,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,7 +5456,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5452,38 +5467,104 @@
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6626.0799999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>339</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>340</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>341</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>342</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>301</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>34</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>307</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>343</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>283</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>34</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>304</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6725.6899999999996</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>344</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>345</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>346</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6067,10 +6148,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -392,13 +392,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -1043,7 +1040,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 9:56 PM</t>
+    <t>Tuesday, 22 July, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2740,7 +2737,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2750,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2766,7 +2763,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2783,11 +2780,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2799,7 +2796,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2832,7 +2829,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2849,11 +2846,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2882,11 +2879,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2898,7 +2895,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2915,11 +2912,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2931,7 +2928,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2948,11 +2945,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2964,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2985,10 +2982,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>150</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2997,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3014,11 +3011,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3030,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3047,11 +3044,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3063,7 +3060,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3080,11 +3077,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3096,7 +3093,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3113,11 +3110,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3129,7 +3126,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3146,11 +3143,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -3162,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3179,11 +3176,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3195,7 +3192,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3212,11 +3209,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3228,7 +3225,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3245,14 +3242,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>177</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3261,7 +3258,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3278,11 +3275,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3294,7 +3291,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3311,11 +3308,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3327,7 +3324,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3344,11 +3341,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3360,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3377,11 +3374,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3393,7 +3390,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3426,7 +3423,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3443,11 +3440,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3459,7 +3456,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3476,11 +3473,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3492,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3525,7 +3522,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3542,11 +3539,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3558,7 +3555,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3575,11 +3572,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3591,7 +3588,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3612,7 +3609,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3624,7 +3621,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3641,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3657,7 +3654,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3678,7 +3675,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3690,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3707,11 +3704,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3723,7 +3720,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3740,11 +3737,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3773,11 +3770,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3789,7 +3786,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3806,11 +3803,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3822,7 +3819,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3839,11 +3836,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3855,7 +3852,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3872,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3888,14 +3885,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,11 +3902,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3921,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,11 +3935,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3954,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3987,7 +3984,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4008,7 +4005,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4020,7 +4017,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4037,7 +4034,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4053,7 +4050,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4074,7 +4071,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -4086,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4107,7 +4104,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4119,7 +4116,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4136,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4152,7 +4149,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4185,7 +4182,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4202,11 +4199,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4218,7 +4215,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4235,11 +4232,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4251,7 +4248,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4268,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4284,7 +4281,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4301,11 +4298,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4317,7 +4314,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4334,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4350,7 +4347,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4367,11 +4364,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4383,7 +4380,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4400,11 +4397,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4416,7 +4413,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4433,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4449,7 +4446,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4470,7 +4467,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4482,7 +4479,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4499,11 +4496,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4515,7 +4512,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4532,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4548,7 +4545,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4565,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4581,7 +4578,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4598,11 +4595,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>68</v>
@@ -4614,7 +4611,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4631,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4647,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4664,11 +4661,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>78</v>
@@ -4680,7 +4677,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4697,11 +4694,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4713,7 +4710,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4730,11 +4727,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4746,7 +4743,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4763,11 +4760,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4779,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4796,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4812,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4829,11 +4826,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4845,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4866,7 +4863,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4878,7 +4875,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4895,7 +4892,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4911,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4928,11 +4925,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4944,7 +4941,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4961,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4977,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4994,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5010,7 +5007,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5027,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5043,7 +5040,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5060,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>78</v>
@@ -5076,7 +5073,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5093,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5109,7 +5106,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5126,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5142,7 +5139,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5159,11 +5156,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5175,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5192,11 +5189,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5208,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5225,7 +5222,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5241,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5258,11 +5255,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5274,7 +5271,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5291,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5307,7 +5304,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5324,7 +5321,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5340,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5357,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5373,7 +5370,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5390,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5406,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5423,11 +5420,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5439,7 +5436,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5456,7 +5453,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5472,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5489,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5505,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5522,7 +5519,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5534,13 +5531,13 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="P124" s="13">
-        <v>6725.6899999999996</v>
+        <v>6741.5299999999997</v>
       </c>
       <c r="Q124" s="13"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c t="s" r="A125" s="14">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5548,13 +5545,13 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c t="s" r="G125" s="15">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="16"/>
       <c t="s" r="K125" s="17">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -800,12 +809,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -887,15 +890,6 @@
     <t>192.0000</t>
   </si>
   <si>
-    <t>ببرونه الجو كبيره</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -1040,7 +1034,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:00 PM</t>
+    <t>Tuesday, 22 July, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2803,7 +2797,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,11 +2807,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2829,14 +2823,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2846,7 +2840,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2869,7 +2863,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2886,7 +2880,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,7 +2896,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2919,7 +2913,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,7 +2929,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2952,7 +2946,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2968,7 +2962,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,14 +2972,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,14 +2988,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3005,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,14 +3021,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,11 +3038,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3060,14 +3054,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3084,7 +3078,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3117,7 +3111,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3133,7 +3127,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3150,7 +3144,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3166,7 +3160,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3183,7 +3177,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3199,7 +3193,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3216,7 +3210,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,7 +3226,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3249,7 +3243,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3252,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3269,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3298,7 +3292,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3331,7 +3325,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3348,7 +3342,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3364,7 +3358,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3368,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,14 +3384,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,14 +3401,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +3417,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,11 +3434,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3463,7 +3457,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3496,7 +3490,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,14 +3500,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,14 +3516,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,11 +3533,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3562,7 +3556,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3566,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,28 +3582,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3621,31 +3615,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,14 +3648,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,14 +3665,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3687,14 +3681,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3698,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,14 +3714,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,11 +3731,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3753,14 +3747,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,11 +3764,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3793,7 +3787,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3810,7 +3804,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3826,7 +3820,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,14 +3830,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3852,14 +3846,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,11 +3863,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3892,7 +3886,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3896,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,14 +3912,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3929,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,31 +3945,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3991,24 +3985,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,7 +4011,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4034,14 +4028,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,7 +4044,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4067,14 +4061,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,14 +4077,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,14 +4094,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4123,7 +4117,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,11 +4127,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4149,31 +4143,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,28 +4176,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4232,11 +4226,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4248,14 +4242,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4259,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4288,7 +4282,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4305,7 +4299,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4321,7 +4315,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4338,7 +4332,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4354,7 +4348,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,11 +4358,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4380,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,7 +4391,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4453,7 +4447,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,11 +4457,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4479,7 +4473,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4496,11 +4490,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4512,14 +4506,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4523,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4545,14 +4539,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,14 +4572,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4589,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,14 +4605,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4655,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4671,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,7 +4704,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4727,11 +4721,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4743,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,31 +4770,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4820,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4842,14 +4836,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4863,7 +4857,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4875,7 +4869,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4892,7 +4886,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4908,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,11 +4919,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4941,7 +4935,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4958,11 +4952,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4974,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,11 +4985,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5007,7 +5001,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5024,11 +5018,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5040,7 +5034,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5057,11 +5051,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>78</v>
@@ -5073,7 +5067,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5090,14 +5084,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,7 +5100,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5123,14 +5117,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,7 +5133,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5156,11 +5150,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5172,14 +5166,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,11 +5183,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5205,7 +5199,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,7 +5216,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5238,14 +5232,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,11 +5249,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5271,7 +5265,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5288,11 +5282,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5304,7 +5298,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5321,7 +5315,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5337,14 +5331,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,11 +5348,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5370,7 +5364,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5387,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5403,14 +5397,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5414,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5436,7 +5430,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5453,7 +5447,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5469,14 +5463,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5480,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5502,14 +5496,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,7 +5513,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5531,13 +5525,13 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="P124" s="13">
-        <v>6741.5299999999997</v>
+        <v>6725.5299999999997</v>
       </c>
       <c r="Q124" s="13"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c t="s" r="A125" s="14">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5545,13 +5539,13 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c t="s" r="G125" s="15">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="16"/>
       <c t="s" r="K125" s="17">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -1034,7 +1034,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:01 PM</t>
+    <t>Tuesday, 22 July, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -236,546 +236,546 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>215.0000</t>
+  </si>
+  <si>
+    <t>CERELAC قمح ولبن</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>75.2400</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>27.5000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>CERELAC قمح ولبن</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>75.2400</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 300MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>-19.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>MAVILOR 10MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT. 10 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>27.5000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>T4-THYRO 50 MCG 100 TABS.</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -968,15 +968,15 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -1034,7 +1034,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:21 PM</t>
+    <t>Tuesday, 22 July, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,7 +2236,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2246,14 +2246,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2279,11 +2279,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2295,14 +2295,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2361,14 +2361,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2378,11 +2378,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2411,11 +2411,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2460,14 +2460,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2510,11 +2510,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2576,14 +2576,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2592,14 +2592,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2609,11 +2609,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2642,11 +2642,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2724,14 +2724,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2807,11 +2807,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2823,14 +2823,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2873,11 +2873,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2906,11 +2906,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2939,11 +2939,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2972,11 +2972,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2988,14 +2988,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3005,14 +3005,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>152</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3021,14 +3021,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3038,11 +3038,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,11 +3071,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3137,11 +3137,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>17</v>
@@ -3186,14 +3186,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3269,14 +3269,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>179</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3335,11 +3335,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3384,14 +3384,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,14 +3401,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3434,11 +3434,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3516,14 +3516,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3582,14 +3582,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3599,11 +3599,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3665,11 +3665,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3698,11 +3698,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3714,14 +3714,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3764,11 +3764,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3863,11 +3863,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3896,11 +3896,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3945,14 +3945,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3962,11 +3962,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3978,14 +3978,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3995,11 +3995,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4061,11 +4061,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4110,14 +4110,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4193,11 +4193,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4226,11 +4226,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4259,11 +4259,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4292,11 +4292,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4308,14 +4308,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4612,7 +4612,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>78</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4975,7 +4975,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5058,7 +5058,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>78</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5088,10 +5088,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5121,10 +5121,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5239,7 +5239,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5305,7 +5305,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5414,11 +5414,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5437,7 +5437,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="P124" s="13">
-        <v>6725.5299999999997</v>
+        <v>6845.5299999999997</v>
       </c>
       <c r="Q124" s="13"/>
     </row>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -188,7 +200,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>210.0000</t>
+    <t>315.0000</t>
   </si>
   <si>
     <t>AVEROMILAN 50 MG 30 F.C. TABS.</t>
@@ -233,6 +245,15 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -275,9 +296,6 @@
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -491,6 +509,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -722,9 +749,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1034,7 +1058,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:22 PM</t>
+    <t>Tuesday, 22 July, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1897,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1883,11 +1907,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1899,14 +1923,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1916,11 +1940,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2015,14 +2039,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2031,14 +2055,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2048,11 +2072,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2081,11 +2105,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2097,14 +2121,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2114,14 +2138,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2130,14 +2154,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2203,7 +2227,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2213,11 +2237,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2229,14 +2253,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2262,7 +2286,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2275,18 +2299,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2319,7 +2343,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2335,13 +2359,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2352,7 +2376,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2401,7 +2425,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2418,7 +2442,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2434,7 +2458,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2467,7 +2491,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2477,14 +2501,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2493,14 +2517,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2510,14 +2534,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2526,14 +2550,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2566,7 +2590,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2576,14 +2600,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2592,14 +2616,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2609,14 +2633,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2625,14 +2649,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2642,14 +2666,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2665,7 +2689,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2675,7 +2699,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2698,7 +2722,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2715,7 +2739,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2731,7 +2755,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,14 +2765,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2757,14 +2781,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,11 +2798,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2790,14 +2814,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2814,7 +2838,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2830,7 +2854,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2840,11 +2864,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2856,14 +2880,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2873,11 +2897,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2889,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,14 +2930,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2929,7 +2953,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2962,7 +2986,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2995,7 +3019,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3005,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3021,14 +3045,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3038,11 +3062,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3054,14 +3078,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,14 +3095,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3087,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3104,14 +3128,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3120,14 +3144,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3160,7 +3184,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3177,7 +3201,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3193,7 +3217,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3226,7 +3250,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3259,7 +3283,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3276,7 +3300,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>178</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3285,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3302,14 +3326,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3318,14 +3342,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3335,11 +3359,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3351,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3368,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3391,7 +3415,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3408,7 +3432,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3417,14 +3441,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,14 +3458,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3450,14 +3474,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3467,14 +3491,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3483,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3500,14 +3524,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3516,14 +3540,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3533,14 +3557,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3549,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3566,14 +3590,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3582,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3599,11 +3623,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3615,31 +3639,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3648,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3665,11 +3689,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3681,14 +3705,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3698,11 +3722,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3714,31 +3738,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3747,7 +3771,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3764,11 +3788,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3780,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3830,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3846,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,11 +3887,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3879,14 +3903,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3896,11 +3920,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3912,14 +3936,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,11 +3953,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3945,14 +3969,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3962,11 +3986,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3978,31 +4002,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4011,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4044,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,14 +4085,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4077,31 +4101,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4110,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4127,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4143,7 +4167,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4160,11 +4184,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4176,31 +4200,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4209,14 +4233,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4226,14 +4250,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4242,7 +4266,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4259,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4275,31 +4299,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4308,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4348,7 +4372,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4358,14 +4382,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,14 +4398,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,11 +4415,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4407,14 +4431,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4431,7 +4455,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4447,7 +4471,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,11 +4481,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4473,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4506,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4539,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,11 +4580,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4579,7 +4603,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4589,14 +4613,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4612,7 +4636,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4629,7 +4653,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4678,7 +4702,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4688,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4704,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4737,14 +4761,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4754,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4777,7 +4801,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4810,21 +4834,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4836,28 +4860,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4869,31 +4893,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4902,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,11 +4943,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4935,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4968,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5001,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5058,7 +5082,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5074,7 +5098,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5084,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>320</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,7 +5124,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5117,14 +5141,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>155</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5140,7 +5164,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5150,14 +5174,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5166,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5190,7 +5214,7 @@
         <v>327</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5199,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5216,14 +5240,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5239,7 +5263,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5265,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5282,11 +5306,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5298,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5315,11 +5339,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5331,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,11 +5372,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5364,7 +5388,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5381,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5397,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5414,11 +5438,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5430,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,11 +5471,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5463,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5480,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5496,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,49 +5537,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6845.5299999999997</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>341</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>342</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>343</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>346</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>262</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>34</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>309</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>347</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>306</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>34</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>312</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>348</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>291</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>34</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>309</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7044.1899999999996</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>349</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>350</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>351</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6149,10 +6272,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:23 PM</t>
+    <t>Tuesday, 22 July, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -698,6 +707,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -992,10 +1010,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1058,7 +1076,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:24 PM</t>
+    <t>Tuesday, 22 July, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2920,7 +2938,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,11 +2948,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2963,7 +2981,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2986,7 +3004,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3003,7 +3021,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3019,7 +3037,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3036,7 +3054,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3052,7 +3070,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3069,7 +3087,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,7 +3103,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3111,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3161,11 +3179,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3201,7 +3219,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3217,7 +3235,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3267,7 +3285,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3283,7 +3301,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3300,7 +3318,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3316,7 +3334,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3333,7 +3351,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3349,7 +3367,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3366,7 +3384,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3382,7 +3400,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3399,7 +3417,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3425,14 +3443,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>190</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3448,7 +3466,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3481,7 +3499,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3498,7 +3516,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3514,7 +3532,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3531,7 +3549,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>200</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3557,14 +3575,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3590,11 +3608,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3613,7 +3631,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3646,7 +3664,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3656,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3672,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3689,11 +3707,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3712,7 +3730,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,28 +3756,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3771,31 +3789,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,14 +3839,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,11 +3905,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,11 +3938,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3943,7 +3961,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3960,7 +3978,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3976,7 +3994,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,11 +4037,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,11 +4103,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4101,24 +4119,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4141,7 +4159,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,11 +4169,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4167,28 +4185,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4200,7 +4218,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4217,14 +4235,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,11 +4268,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4266,7 +4284,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4283,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4299,31 +4317,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,7 +4350,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4349,14 +4367,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4365,28 +4383,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4398,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4433,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4431,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,11 +4466,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4464,7 +4482,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4481,11 +4499,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4497,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,14 +4532,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4530,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4547,11 +4565,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4563,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,11 +4598,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4596,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,11 +4631,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4629,14 +4647,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,11 +4664,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4662,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,7 +4697,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4702,7 +4720,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4801,7 +4819,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>262</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4834,7 +4852,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4851,7 +4869,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4867,7 +4885,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4877,14 +4895,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4893,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,28 +4944,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4959,31 +4977,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4992,14 +5010,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5013,7 +5031,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5025,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,7 +5060,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5079,7 +5097,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5091,14 +5109,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,11 +5126,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5124,7 +5142,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5141,11 +5159,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5157,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>324</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5214,7 +5232,7 @@
         <v>327</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,7 +5241,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5240,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>163</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5307,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>335</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5339,11 +5357,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5362,7 +5380,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>163</v>
+        <v>339</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,11 +5390,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5388,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,11 +5423,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5421,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,11 +5456,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5454,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5487,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5508,7 +5526,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5520,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5553,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5586,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,11 +5621,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>313</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5619,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,7 +5654,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5647,38 +5665,104 @@
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7044.1899999999996</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>349</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>350</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>351</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>353</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>312</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>34</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>318</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>354</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>297</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>34</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>315</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7250.6899999999996</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>355</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>356</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>357</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6287,10 +6371,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -257,10 +257,16 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>215.0000</t>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>CERELAC قمح ولبن</t>
@@ -404,9 +410,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -800,6 +803,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -815,9 +827,6 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -884,9 +893,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>84.1500</t>
   </si>
   <si>
@@ -1076,7 +1082,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:32 PM</t>
+    <t>Tuesday, 22 July, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,7 +2350,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2354,14 +2360,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2370,7 +2376,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2436,7 +2442,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2469,7 +2475,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2502,7 +2508,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2519,11 +2525,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2535,7 +2541,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2552,11 +2558,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2618,11 +2624,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2634,7 +2640,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2651,11 +2657,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2750,11 +2756,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2766,7 +2772,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2783,11 +2789,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2816,11 +2822,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2849,11 +2855,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2865,7 +2871,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2882,11 +2888,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2898,7 +2904,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2915,11 +2921,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2964,7 +2970,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2997,7 +3003,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3030,7 +3036,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3063,7 +3069,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3080,11 +3086,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3096,7 +3102,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3179,11 +3185,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3212,11 +3218,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3228,7 +3234,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3261,7 +3267,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3278,11 +3284,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3294,7 +3300,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3311,11 +3317,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3410,11 +3416,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3426,7 +3432,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3459,7 +3465,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3476,11 +3482,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3492,7 +3498,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3509,11 +3515,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3525,7 +3531,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3542,11 +3548,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3558,7 +3564,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3575,14 +3581,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3591,7 +3597,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3608,11 +3614,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3641,11 +3647,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3657,7 +3663,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3674,11 +3680,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3690,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,11 +3713,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3723,7 +3729,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3740,11 +3746,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,11 +3779,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3789,7 +3795,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3810,7 +3816,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3822,7 +3828,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3855,7 +3861,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3872,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,11 +3911,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3921,7 +3927,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3954,7 +3960,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3971,11 +3977,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3987,7 +3993,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4004,11 +4010,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4020,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,11 +4043,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4053,7 +4059,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4070,11 +4076,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4086,7 +4092,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4103,11 +4109,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4136,11 +4142,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4152,14 +4158,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4169,11 +4175,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4185,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,11 +4208,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4218,7 +4224,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4239,7 +4245,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4272,7 +4278,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4284,7 +4290,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4305,7 +4311,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4317,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4338,7 +4344,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4350,7 +4356,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4367,11 +4373,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4383,7 +4389,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4416,7 +4422,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4433,11 +4439,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,14 +4472,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4482,14 +4488,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4515,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4539,7 +4545,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4555,7 +4561,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4572,7 +4578,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4588,7 +4594,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,11 +4604,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4614,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4631,7 +4637,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4664,11 +4670,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4680,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4697,11 +4703,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4713,7 +4719,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4730,7 +4736,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4753,7 +4759,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4786,7 +4792,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4796,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,14 +4835,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4852,7 +4858,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,14 +4901,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>268</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4911,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4944,7 +4950,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4961,7 +4967,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4984,7 +4990,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4994,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,31 +5016,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>308</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5043,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,11 +5066,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5076,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,11 +5099,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5116,7 +5122,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5142,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,11 +5165,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5175,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,7 +5198,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5215,7 +5221,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,11 +5231,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5241,7 +5247,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5258,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5274,7 +5280,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5291,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>334</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5307,7 +5313,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5324,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>166</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,14 +5363,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>337</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5380,7 +5386,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,11 +5396,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5406,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5423,11 +5429,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5446,7 +5452,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,11 +5462,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5472,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,11 +5495,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5505,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5538,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,11 +5561,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5578,7 +5584,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,11 +5594,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5604,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,11 +5627,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5644,7 +5650,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,11 +5660,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5670,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,11 +5693,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5703,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,49 +5726,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7250.6899999999996</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>355</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>356</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>299</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>34</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>317</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7266.6899999999996</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>357</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>358</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>359</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6381,10 +6420,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:33 PM</t>
+    <t>Tuesday, 22 July, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -563,9 +563,6 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>17.8200</t>
-  </si>
-  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1007,9 +1007,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1082,7 +1079,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:37 PM</t>
+    <t>Tuesday, 22 July, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3373,7 +3370,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3387,10 +3384,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3399,7 +3396,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3416,11 +3413,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3449,14 +3446,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>190</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>191</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3465,7 +3462,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3482,11 +3479,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3498,7 +3495,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3515,11 +3512,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3531,7 +3528,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3548,11 +3545,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3564,7 +3561,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3581,14 +3578,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>204</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3597,7 +3594,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3630,7 +3627,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3647,11 +3644,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3663,7 +3660,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3680,11 +3677,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3696,14 +3693,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3729,7 +3726,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3746,11 +3743,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3762,7 +3759,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3783,7 +3780,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3795,7 +3792,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3861,7 +3858,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3882,7 +3879,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3894,14 +3891,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,11 +3908,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3960,7 +3957,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3977,11 +3974,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3993,7 +3990,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4010,11 +4007,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4026,7 +4023,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4043,11 +4040,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4080,7 +4077,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4092,7 +4089,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4109,11 +4106,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4125,14 +4122,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,11 +4139,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4158,14 +4155,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4175,11 +4172,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4191,14 +4188,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4224,7 +4221,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4245,7 +4242,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4257,7 +4254,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4323,14 +4320,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4344,7 +4341,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4356,7 +4353,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4373,11 +4370,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4389,7 +4386,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4422,7 +4419,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4439,11 +4436,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4455,7 +4452,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4472,11 +4469,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4488,7 +4485,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4521,7 +4518,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4538,11 +4535,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4554,7 +4551,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4571,11 +4568,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4587,7 +4584,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4604,11 +4601,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4620,7 +4617,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4637,11 +4634,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4653,7 +4650,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4670,11 +4667,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4686,7 +4683,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4719,7 +4716,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4740,7 +4737,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4752,7 +4749,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4769,11 +4766,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4785,7 +4782,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4802,11 +4799,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4818,7 +4815,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4839,7 +4836,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4851,14 +4848,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4865,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4881,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4898,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4914,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4931,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4950,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,14 +4964,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,7 +4980,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5000,11 +4997,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5016,14 +5013,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5030,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5049,31 +5046,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5082,14 +5079,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,11 +5096,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5115,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,11 +5129,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5148,14 +5145,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,11 +5162,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5181,14 +5178,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,11 +5195,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5214,14 +5211,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,11 +5228,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5247,14 +5244,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,11 +5261,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5280,7 +5277,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5297,14 +5294,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5313,7 +5310,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5330,14 +5327,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>336</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,7 +5343,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5363,14 +5360,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>167</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5379,14 +5376,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5412,14 +5409,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,11 +5426,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5445,14 +5442,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,11 +5459,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5478,14 +5475,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,11 +5492,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5511,14 +5508,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,11 +5525,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5544,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,11 +5558,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5577,14 +5574,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,11 +5591,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5610,14 +5607,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,11 +5624,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5643,14 +5640,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,11 +5657,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5676,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>85</v>
+        <v>352</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5690,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5709,14 +5706,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,11 +5723,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5742,14 +5739,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,49 +5756,82 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>355</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>299</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>34</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>317</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>131</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7266.6899999999996</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7342.5100000000002</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>356</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>357</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
         <v>358</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>359</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6425,10 +6455,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALLERGEX 1.5% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>ALPHAVIM 300 - 20 CAPS.</t>
   </si>
   <si>
@@ -108,9 +120,6 @@
   </si>
   <si>
     <t>AM GINKO TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>0</t>
@@ -1819,7 +1828,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1869,7 +1878,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1891,18 +1900,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1911,31 +1920,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1984,7 +1993,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2017,7 +2026,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2060,11 +2069,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2116,7 +2125,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2126,7 +2135,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -2149,7 +2158,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2166,7 +2175,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2182,7 +2191,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2199,7 +2208,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2215,7 +2224,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2258,11 +2267,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2347,7 +2356,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2373,31 +2382,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2413,24 +2422,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2479,7 +2488,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2512,7 +2521,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2529,7 +2538,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2562,7 +2571,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2578,7 +2587,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2588,11 +2597,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2628,7 +2637,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2661,7 +2670,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2677,7 +2686,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2753,7 +2762,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2809,7 +2818,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2826,7 +2835,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2859,7 +2868,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2892,7 +2901,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2908,7 +2917,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2941,7 +2950,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2974,7 +2983,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2984,11 +2993,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3017,7 +3026,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3057,7 +3066,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3073,7 +3082,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3090,7 +3099,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3106,7 +3115,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3123,7 +3132,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3139,7 +3148,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3215,11 +3224,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3255,7 +3264,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3321,7 +3330,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3354,7 +3363,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3370,7 +3379,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3384,10 +3393,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3436,7 +3445,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3453,7 +3462,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3462,7 +3471,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>193</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3502,7 +3511,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3535,7 +3544,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3552,7 +3561,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3585,7 +3594,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>203</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3644,11 +3653,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3667,7 +3676,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3700,7 +3709,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3766,7 +3775,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3792,28 +3801,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3825,7 +3834,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3838,18 +3847,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3997,7 +4006,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4014,7 +4023,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4030,7 +4039,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4047,7 +4056,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4063,7 +4072,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4106,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4129,7 +4138,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4188,31 +4197,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4221,31 +4230,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4254,7 +4263,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4287,7 +4296,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4360,7 +4369,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4386,31 +4395,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4419,28 +4428,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4459,7 +4468,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4476,7 +4485,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4492,7 +4501,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4558,7 +4567,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4575,7 +4584,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4591,7 +4600,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4608,7 +4617,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4624,7 +4633,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4634,11 +4643,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4667,7 +4676,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4733,11 +4742,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4749,7 +4758,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4766,7 +4775,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4789,7 +4798,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4822,7 +4831,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4954,7 +4963,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4987,7 +4996,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,14 +5006,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5030,11 +5039,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5063,14 +5072,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5086,24 +5095,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5112,24 +5121,24 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5152,21 +5161,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5178,20 +5187,20 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5199,7 +5208,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5211,20 +5220,20 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5251,21 +5260,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5277,24 +5286,24 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5317,13 +5326,13 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5331,10 +5340,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,31 +5352,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>334</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>335</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5376,31 +5385,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>167</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5409,31 +5418,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>338</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5442,28 +5451,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5475,20 +5484,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5496,7 +5505,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5508,28 +5517,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5541,28 +5550,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5574,28 +5583,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5607,28 +5616,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5640,28 +5649,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5673,28 +5682,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5706,28 +5715,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5739,20 +5748,20 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5760,7 +5769,7 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5772,66 +5781,99 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7342.5100000000002</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>356</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>357</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>358</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>302</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>37</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>320</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7350.5100000000002</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>359</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>360</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>361</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6460,10 +6502,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:50 PM</t>
+    <t>Tuesday, 22 July, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>12.8700</t>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
@@ -866,6 +866,9 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -1022,10 +1025,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1088,7 +1091,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:51 PM</t>
+    <t>Tuesday, 22 July, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3808,7 +3811,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3822,10 +3825,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -4765,7 +4768,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,11 +4778,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4791,7 +4794,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4824,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,11 +4844,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4857,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4911,7 +4914,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4930,7 +4933,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5039,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5055,7 +5058,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5072,11 +5075,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5088,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5121,31 +5124,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5154,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,11 +5174,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>318</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,11 +5240,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>324</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5253,14 +5256,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,11 +5273,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,11 +5306,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5319,14 +5322,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,11 +5339,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5352,7 +5355,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5369,14 +5372,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5402,14 +5405,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>338</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5418,7 +5421,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5435,14 +5438,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>170</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5458,7 +5461,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,14 +5471,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>191</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,11 +5504,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5517,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,11 +5537,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5550,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5567,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5590,7 +5593,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5600,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5623,7 +5626,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5633,11 +5636,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5656,7 +5659,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,11 +5669,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5682,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>26</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,11 +5702,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5722,7 +5725,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>355</v>
+        <v>26</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,11 +5735,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>167</v>
+        <v>327</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5748,14 +5751,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,11 +5768,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5788,7 +5791,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,11 +5801,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>324</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5821,7 +5824,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,49 +5834,82 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>359</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>303</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>37</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>321</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>134</v>
       </c>
-      <c t="s" r="Q131" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7350.5100000000002</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>359</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7383.3800000000001</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
         <v>360</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
         <v>361</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>362</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6507,10 +6543,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-22_00-00.xlsx
+++ b/DaySale_2025-07-22_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -578,9 +587,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -950,6 +956,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -995,87 +1010,90 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شامبو دوف 200مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>كمامات قطع</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت كازانوفا بالجرجير </t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>35:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 3</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شامبو دوف 200مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم للبشره العاديه </t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>كمامات قطع</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1091,7 +1109,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 22 July, 2025 10:57 PM</t>
+    <t>Tuesday, 22 July, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2128,7 +2146,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2161,7 +2179,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2171,7 +2189,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -2194,7 +2212,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2211,7 +2229,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2227,7 +2245,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2244,7 +2262,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2260,7 +2278,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2270,11 +2288,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2303,11 +2321,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2359,7 +2377,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2392,7 +2410,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2418,31 +2436,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2458,24 +2476,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2484,14 +2502,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2524,7 +2542,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2557,7 +2575,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2574,7 +2592,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2607,7 +2625,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2623,7 +2641,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2633,11 +2651,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2673,7 +2691,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2689,7 +2707,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2706,7 +2724,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2722,7 +2740,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2765,14 +2783,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2788,7 +2806,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2798,7 +2816,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2854,7 +2872,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2871,7 +2889,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2887,7 +2905,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2904,7 +2922,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2920,7 +2938,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2937,7 +2955,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2953,7 +2971,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2986,7 +3004,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3019,7 +3037,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3062,7 +3080,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3085,7 +3103,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3102,7 +3120,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3118,7 +3136,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3135,7 +3153,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3151,7 +3169,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3168,7 +3186,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3184,7 +3202,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3210,14 +3228,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3227,14 +3245,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3243,14 +3261,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3260,11 +3278,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3276,14 +3294,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3300,7 +3318,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3316,7 +3334,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3366,7 +3384,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@